--- a/tbl_Unis.xlsx
+++ b/tbl_Unis.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\BI_NodeJsVersion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E7B640-2C07-4411-B2DD-61992D413199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488F7A83-F001-4ADF-A625-A3F06CDF8667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tbl_Unisersities" sheetId="1" r:id="rId1"/>
+    <sheet name="tbl_Universities" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1068,12 +1068,12 @@
       <selection activeCell="B2" sqref="B2:B220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
